--- a/Kmarket API 설계.xlsx
+++ b/Kmarket API 설계.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Kmarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +195,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +552,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -563,7 +569,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -577,52 +583,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -630,24 +625,42 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,6 +668,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097CC9FFAC65EFA45BEA04EBBB60CAD5B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b23439a91ba18143205c49e90ab13d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60114a07b5dc583519299b7a26e1c8b6">
     <xsd:element name="properties">
@@ -768,15 +790,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -784,6 +797,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E38BF8-DA76-4FEC-BE1F-43A93506C983}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -795,14 +816,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{305CDDD2-5EEF-4FF9-9584-902F68B12982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
